--- a/Inputs/market_data.xlsx
+++ b/Inputs/market_data.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova_000\Desktop\SABR definitivo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="20640" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Swaptions data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -43,20 +41,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +62,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,13 +101,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -122,11 +148,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -135,7 +161,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -143,10 +169,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -154,7 +180,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -165,44 +191,44 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -210,56 +236,58 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,31 +320,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,25 +368,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+  <cellStyles count="4">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,15 +683,15 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -663,7 +707,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -701,7 +745,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -739,7 +783,7 @@
         <v>0.44950000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -777,7 +821,7 @@
         <v>0.45760000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -815,7 +859,7 @@
         <v>0.44629999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -853,7 +897,7 @@
         <v>0.47539999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -891,7 +935,7 @@
         <v>0.44419999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -929,7 +973,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -967,7 +1011,7 @@
         <v>0.21279999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1005,7 +1049,7 @@
         <v>0.3725</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -1044,7 +1088,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -1082,7 +1126,7 @@
         <v>0.36919999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1120,7 +1164,7 @@
         <v>0.36680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1158,7 +1202,7 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1196,7 +1240,7 @@
         <v>0.25719999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1234,7 +1278,7 @@
         <v>0.20830000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1272,7 +1316,7 @@
         <v>0.31209999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>10</v>
       </c>
@@ -1310,7 +1354,7 @@
         <v>0.32069999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -1348,7 +1392,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -1386,45 +1430,45 @@
         <v>0.30080000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:12" s="40" customFormat="1">
+      <c r="A21" s="35">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="36">
         <v>2.7193322697067101E-2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="37">
         <v>0.47249999999999998</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="37">
         <v>0.4022</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="37">
         <v>0.3553</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="37">
         <v>0.3377</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="38">
         <v>0.32490000000000002</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="37">
         <v>0.31130000000000002</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="37">
         <v>0.30109999999999998</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="37">
         <v>0.28849999999999998</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="39">
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>10</v>
       </c>
@@ -1462,7 +1506,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -1500,7 +1544,7 @@
         <v>0.2218</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1538,7 +1582,7 @@
         <v>0.26029999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>15</v>
       </c>
@@ -1576,7 +1620,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>15</v>
       </c>
@@ -1614,7 +1658,7 @@
         <v>0.27360000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>15</v>
       </c>
@@ -1652,7 +1696,7 @@
         <v>0.27589999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>15</v>
       </c>
@@ -1690,7 +1734,7 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <v>15</v>
       </c>
@@ -1728,7 +1772,7 @@
         <v>0.24579999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -1766,7 +1810,7 @@
         <v>0.22389999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1804,7 +1848,7 @@
         <v>0.28110000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1842,7 +1886,7 @@
         <v>0.2913</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1880,7 +1924,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -1918,7 +1962,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -1956,7 +2000,7 @@
         <v>0.28760000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -1994,7 +2038,7 @@
         <v>0.26140000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="5">
         <v>30</v>
       </c>
@@ -2032,7 +2076,7 @@
         <v>0.2286</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="34">
         <v>3.75</v>
       </c>
@@ -2070,7 +2114,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="D39" s="26"/>
@@ -2083,7 +2127,7 @@
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="D40" s="26"/>
@@ -2096,7 +2140,7 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="D41" s="26"/>
@@ -2109,7 +2153,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="D42" s="26"/>
@@ -2122,7 +2166,7 @@
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="D43" s="26"/>
@@ -2135,7 +2179,7 @@
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="D44" s="26"/>
@@ -2148,7 +2192,7 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="D45" s="26"/>
@@ -2161,7 +2205,7 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="D46" s="26"/>
@@ -2174,7 +2218,7 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="D47" s="26"/>
@@ -2187,7 +2231,7 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="D48" s="26"/>
@@ -2200,7 +2244,7 @@
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="D49" s="26"/>
@@ -2213,7 +2257,7 @@
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="D50" s="26"/>
@@ -2226,7 +2270,7 @@
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="D51" s="26"/>
@@ -2239,7 +2283,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="D52" s="26"/>
@@ -2252,7 +2296,7 @@
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="D53" s="26"/>
@@ -2265,7 +2309,7 @@
       <c r="K53" s="26"/>
       <c r="L53" s="26"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="D54" s="26"/>
@@ -2279,6 +2323,13 @@
       <c r="L54" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>